--- a/bank/pac-2022-08-26.xlsx
+++ b/bank/pac-2022-08-26.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingding/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CDF6FF-EE57-2D49-94E6-639572EFF377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF6E2C2-62EB-1D42-A6AE-65117E8472E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="1540" windowWidth="24200" windowHeight="12880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="1540" windowWidth="24200" windowHeight="12880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC-Init" sheetId="1" r:id="rId1"/>
     <sheet name="NC-SUM" sheetId="4" r:id="rId2"/>
-    <sheet name="JX-banks" sheetId="12" r:id="rId3"/>
-    <sheet name="JX-flow" sheetId="10" r:id="rId4"/>
+    <sheet name="JX-Icbc" sheetId="10" r:id="rId3"/>
+    <sheet name="JX-banks" sheetId="12" r:id="rId4"/>
     <sheet name="DW-Tot" sheetId="5" r:id="rId5"/>
-    <sheet name="wd-op-log" sheetId="6" r:id="rId6"/>
-    <sheet name="draft-NCBank-Alloc" sheetId="11" r:id="rId7"/>
-    <sheet name="draft" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
+    <sheet name="wd-op-log" sheetId="6" r:id="rId7"/>
+    <sheet name="draft-NCBank-Alloc" sheetId="11" r:id="rId8"/>
+    <sheet name="draft" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -498,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="224">
   <si>
     <t>Account#</t>
   </si>
@@ -770,9 +772,6 @@
     <t>22-04-19</t>
   </si>
   <si>
-    <t>Hantian Hostpical, mom hand</t>
-  </si>
-  <si>
     <t>22-04-22</t>
   </si>
   <si>
@@ -1022,21 +1021,9 @@
     <t>card</t>
   </si>
   <si>
-    <t>cd</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
-    <t>*2087</t>
-  </si>
-  <si>
-    <t>*6935</t>
-  </si>
-  <si>
-    <t>*2445</t>
-  </si>
-  <si>
     <t>4140700-</t>
   </si>
   <si>
@@ -1046,9 +1033,6 @@
     <t>*5044</t>
   </si>
   <si>
-    <t>招商</t>
-  </si>
-  <si>
     <t>*5523</t>
   </si>
   <si>
@@ -1094,7 +1078,100 @@
     <t>notes</t>
   </si>
   <si>
-    <t>sta</t>
+    <t>Acct</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>total of three acc</t>
+  </si>
+  <si>
+    <t>new-card</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>JX-工商銀行</t>
+  </si>
+  <si>
+    <t>JX-北京农商</t>
+  </si>
+  <si>
+    <t>JX-中国銀行</t>
+  </si>
+  <si>
+    <t>JX-北京銀行</t>
+  </si>
+  <si>
+    <t>JX-招商</t>
+  </si>
+  <si>
+    <t>JX-Total</t>
+  </si>
+  <si>
+    <t>NC-Total</t>
+  </si>
+  <si>
+    <t>Overall-Total</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Hangtian Hostpical, mom hand</t>
+  </si>
+  <si>
+    <t>jx-icbc</t>
+  </si>
+  <si>
+    <t>ix-merchan</t>
+  </si>
+  <si>
+    <t>dw-icbc</t>
+  </si>
+  <si>
+    <t>dw-mrchan</t>
+  </si>
+  <si>
+    <t>quote1</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>month4</t>
+  </si>
+  <si>
+    <t>month5</t>
+  </si>
+  <si>
+    <t>month6</t>
+  </si>
+  <si>
+    <t>month7</t>
+  </si>
+  <si>
+    <t>quote2</t>
+  </si>
+  <si>
+    <t>CNY(expense)</t>
+  </si>
+  <si>
+    <t>month8</t>
+  </si>
+  <si>
+    <t>month9</t>
+  </si>
+  <si>
+    <t>month10</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,6 +1396,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1415,7 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1625,6 +1720,18 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="22" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1848,7 +1955,7 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2654,6 +2761,476 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D30867E-529D-4945-9ADE-3E48602D6754}">
+  <dimension ref="A2:Y25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:25">
+      <c r="B2" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:25" s="58" customFormat="1">
+      <c r="A3" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="129">
+        <f>SUM(B4:B7)</f>
+        <v>2646236.4900000002</v>
+      </c>
+      <c r="C3" s="130">
+        <f>SUM(C8:C90)</f>
+        <v>106782.73999999999</v>
+      </c>
+      <c r="E3" s="130">
+        <f>SUM(E9:E170)</f>
+        <v>723096.84</v>
+      </c>
+      <c r="F3" s="136">
+        <f>B3+E3</f>
+        <v>3369333.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1852689.29</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="15">
+        <v>133429.81</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="15">
+        <v>600606.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="15">
+        <v>59510.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="126" customFormat="1">
+      <c r="A8" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="131">
+        <v>6782.74</v>
+      </c>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+    </row>
+    <row r="9" spans="1:25" s="126" customFormat="1">
+      <c r="A9" s="127" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="131">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="126">
+        <f>E9/C9</f>
+        <v>6.8750200000000001</v>
+      </c>
+      <c r="E9" s="128">
+        <v>343751</v>
+      </c>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+    </row>
+    <row r="10" spans="1:25" s="126" customFormat="1">
+      <c r="A10" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="131">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="126">
+        <f>E10/C10</f>
+        <v>6.8750200000000001</v>
+      </c>
+      <c r="E10" s="128">
+        <v>343751</v>
+      </c>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+    </row>
+    <row r="11" spans="1:25" s="126" customFormat="1">
+      <c r="E11" s="128">
+        <f t="shared" ref="E10:E17" si="0">C11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+    </row>
+    <row r="12" spans="1:25" s="126" customFormat="1">
+      <c r="E12" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+    </row>
+    <row r="13" spans="1:25" s="126" customFormat="1">
+      <c r="E13" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+    </row>
+    <row r="14" spans="1:25" s="126" customFormat="1">
+      <c r="E14" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+    </row>
+    <row r="15" spans="1:25" s="126" customFormat="1">
+      <c r="E15" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+    </row>
+    <row r="16" spans="1:25" s="126" customFormat="1">
+      <c r="E16" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="132"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+    </row>
+    <row r="17" spans="1:25" s="126" customFormat="1">
+      <c r="E17" s="128">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="133" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="135">
+        <v>1734.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="135">
+        <v>17000</v>
+      </c>
+      <c r="I19">
+        <v>6876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="133" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="135">
+        <v>13000</v>
+      </c>
+      <c r="I20">
+        <v>68828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="133" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="135">
+        <v>3860.69</v>
+      </c>
+      <c r="I21">
+        <v>68697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="I22">
+        <v>68648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="133" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="I23">
+        <v>68711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="133" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="I24">
+        <v>61991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="I25">
+        <f>SUM(I19:I24)</f>
+        <v>343751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2682,28 +3259,28 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>64</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="33" customHeight="1" thickBot="1">
@@ -2782,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>1</v>
@@ -2812,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -3430,141 +4007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1525EFA6-092E-584F-9758-EFAA6673DDEE}">
-  <dimension ref="B2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="F2" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6">
-        <v>1478.72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="15">
-        <v>183.87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.37</v>
-      </c>
-      <c r="F8" s="15">
-        <v>17549</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="15">
-        <v>60122.35</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44FAD0C-4D6F-3E47-B6A8-85EBFE68B2D4}">
   <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3590,7 +4040,7 @@
         <v>3255963.66</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14" thickBot="1">
@@ -3598,12 +4048,12 @@
         <v>2166524.14</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="61" customFormat="1" ht="14" thickBot="1">
       <c r="A3" s="103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="115">
@@ -3625,7 +4075,7 @@
     </row>
     <row r="4" spans="1:14" s="95" customFormat="1" ht="14" thickBot="1">
       <c r="A4" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="88">
@@ -3655,38 +4105,38 @@
         <v>1089439.52</v>
       </c>
       <c r="N4" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="80" customFormat="1" ht="29" customHeight="1">
       <c r="A5" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>113</v>
-      </c>
       <c r="D5" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="85"/>
       <c r="F5" s="80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="85"/>
       <c r="J5" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K5" s="86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L5" s="87">
         <v>44857</v>
@@ -3761,10 +4211,10 @@
     </row>
     <row r="12" spans="1:14" s="70" customFormat="1">
       <c r="A12" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="67" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>172</v>
       </c>
       <c r="C12" s="117">
         <v>-800</v>
@@ -3791,10 +4241,10 @@
     </row>
     <row r="14" spans="1:14" s="70" customFormat="1">
       <c r="A14" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="108">
         <v>200000</v>
@@ -3825,7 +4275,7 @@
     </row>
     <row r="16" spans="1:14" s="70" customFormat="1">
       <c r="A16" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="108">
@@ -3843,7 +4293,7 @@
     <row r="17" spans="1:13" s="70" customFormat="1">
       <c r="A17" s="59"/>
       <c r="B17" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="118">
         <v>-400000</v>
@@ -3860,7 +4310,7 @@
     <row r="18" spans="1:13" s="70" customFormat="1">
       <c r="A18" s="59"/>
       <c r="B18" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="119">
         <v>50000</v>
@@ -3876,10 +4326,10 @@
     </row>
     <row r="19" spans="1:13" s="70" customFormat="1">
       <c r="A19" s="103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="108">
         <v>400000</v>
@@ -3894,7 +4344,7 @@
     <row r="20" spans="1:13" s="70" customFormat="1">
       <c r="A20" s="103"/>
       <c r="B20" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="106">
         <v>-200000</v>
@@ -3908,7 +4358,7 @@
     <row r="21" spans="1:13" s="70" customFormat="1">
       <c r="A21" s="103"/>
       <c r="B21" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="106">
         <v>-200000</v>
@@ -3922,7 +4372,7 @@
     <row r="22" spans="1:13" s="70" customFormat="1">
       <c r="A22" s="103"/>
       <c r="B22" s="104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="116">
         <v>-18</v>
@@ -3936,7 +4386,7 @@
     <row r="23" spans="1:13" s="70" customFormat="1">
       <c r="A23" s="103"/>
       <c r="B23" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="116">
         <v>-1380</v>
@@ -3950,7 +4400,7 @@
     <row r="24" spans="1:13" s="70" customFormat="1">
       <c r="A24" s="103"/>
       <c r="B24" s="104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="116">
         <v>1500</v>
@@ -3964,7 +4414,7 @@
     <row r="25" spans="1:13" s="70" customFormat="1">
       <c r="A25" s="103"/>
       <c r="B25" s="104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="116">
         <v>-1500</v>
@@ -3977,13 +4427,13 @@
     </row>
     <row r="26" spans="1:13" s="70" customFormat="1">
       <c r="A26" s="103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="104"/>
       <c r="C26" s="106"/>
       <c r="E26" s="78"/>
       <c r="F26" s="74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="105">
         <v>6309</v>
@@ -4013,11 +4463,11 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="15"/>
       <c r="F28" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28">
         <v>819.48</v>
@@ -4037,7 +4487,7 @@
         <v>85</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="107">
         <v>-200000</v>
@@ -4052,7 +4502,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="107">
         <v>-200000</v>
@@ -4067,7 +4517,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="77">
         <v>400000</v>
@@ -4085,7 +4535,7 @@
         <v>72</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="15">
         <v>80.3</v>
@@ -4107,7 +4557,7 @@
         <v>82</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="72">
         <v>-100000</v>
@@ -4122,7 +4572,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="72">
         <v>-200000</v>
@@ -4137,7 +4587,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="72">
         <v>-200000</v>
@@ -4152,7 +4602,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="76">
         <v>500000</v>
@@ -4174,10 +4624,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="68" t="s">
         <v>115</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>116</v>
       </c>
       <c r="C38" s="15">
         <v>1.44</v>
@@ -4192,14 +4642,14 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="68"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="83"/>
       <c r="F39" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G39" s="15">
         <v>6057</v>
@@ -4211,14 +4661,14 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="68"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="83"/>
       <c r="F40" s="75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" s="15">
         <v>819.48</v>
@@ -4238,10 +4688,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="15">
         <v>-8100</v>
@@ -4256,10 +4706,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="15">
         <v>-1000</v>
@@ -4274,10 +4724,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="15">
         <v>-8200</v>
@@ -4304,13 +4754,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="83"/>
       <c r="F46" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G46" s="71">
         <v>10600</v>
@@ -4322,10 +4772,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="15">
         <v>-153.4</v>
@@ -4340,14 +4790,14 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="68"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="83"/>
       <c r="F48" s="75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48" s="15">
         <v>6057</v>
@@ -4359,10 +4809,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="68" t="s">
         <v>122</v>
-      </c>
-      <c r="B49" s="68" t="s">
-        <v>123</v>
       </c>
       <c r="C49" s="15">
         <v>-15</v>
@@ -4377,7 +4827,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="B50" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="15">
         <v>-111.2</v>
@@ -4392,10 +4842,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="15">
         <v>12.34</v>
@@ -4410,10 +4860,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="15">
         <v>-131.1</v>
@@ -4428,10 +4878,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="15">
         <v>-51.6</v>
@@ -4446,10 +4896,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="15">
         <v>-15.2</v>
@@ -4464,14 +4914,14 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="68"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="83"/>
       <c r="F55" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="71">
         <v>100296</v>
@@ -4483,10 +4933,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="15">
         <v>-10</v>
@@ -4501,10 +4951,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" s="15">
         <v>-1</v>
@@ -4519,10 +4969,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="68" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" s="68" t="s">
-        <v>131</v>
       </c>
       <c r="C58" s="15">
         <v>-95</v>
@@ -4537,10 +4987,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="15">
         <v>-55</v>
@@ -4563,10 +5013,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="69">
         <v>109923.47</v>
@@ -4932,6 +5382,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1525EFA6-092E-584F-9758-EFAA6673DDEE}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="D2" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1089439.52</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4">
+        <v>1478.72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="15">
+        <v>183.87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="15">
+        <v>17549.37</v>
+      </c>
+      <c r="F6" s="15">
+        <v>17549</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="18">
+        <f>SUM(E3:E6)</f>
+        <v>1108651.4800000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2166525.7999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="125">
+        <f>E9+E11</f>
+        <v>3275177.2800000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5002,7 +5593,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C4" s="41">
         <v>1243610.95</v>
@@ -5020,7 +5611,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="15">
         <v>50000</v>
@@ -5034,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -5048,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C7" s="15">
         <v>100</v>
@@ -5064,7 +5655,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C8" s="15">
         <v>0</v>
@@ -5223,11 +5814,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF941A89-B655-B543-904F-EB5D56397792}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5331,37 +5934,37 @@
         <v>858.24</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
         <v>98</v>
       </c>
       <c r="E24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15">
         <v>100</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="23"/>
     </row>
@@ -5452,7 +6055,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="15">
         <v>872</v>
@@ -5466,7 +6069,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="15">
         <v>1536</v>
@@ -5508,13 +6111,13 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="15">
         <v>190</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>83</v>
@@ -5528,7 +6131,7 @@
         <v>100</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="23"/>
     </row>
@@ -5650,11 +6253,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271C56AD-358B-5F41-8594-EEFEF177CE0B}">
   <dimension ref="A4:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5671,34 +6274,34 @@
   <sheetData>
     <row r="4" spans="1:11" s="114" customFormat="1" ht="39" customHeight="1">
       <c r="B4" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="114" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="114" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="114" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="114" t="s">
-        <v>154</v>
-      </c>
       <c r="K4" s="114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5747,7 +6350,7 @@
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1">
       <c r="A10" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="44">
         <f>B18</f>
@@ -5773,7 +6376,7 @@
         <v>2163336.9500000002</v>
       </c>
       <c r="K10" s="120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5785,7 +6388,7 @@
         <v>200000</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5794,7 +6397,7 @@
         <v>400000</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5803,7 +6406,7 @@
         <v>400000</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5817,7 +6420,7 @@
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1">
       <c r="A18" s="120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="44">
         <f>SUM(B19:B20)</f>
@@ -5845,12 +6448,12 @@
         <v>2164836.9500000002</v>
       </c>
       <c r="K18" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="15">
         <v>9324.35</v>
@@ -5874,7 +6477,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="15">
         <v>50056.78</v>
@@ -5906,7 +6509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23585EF9-DCB4-D24B-B2D6-F8579CF99F26}">
   <dimension ref="C1:H33"/>
   <sheetViews>

--- a/bank/pac-2022-08-26.xlsx
+++ b/bank/pac-2022-08-26.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiding/Sites/weidroot/weidroot_2017-01-06/app/github/wdingsoft/whingding/bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF6E2C2-62EB-1D42-A6AE-65117E8472E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3224BAF4-2F8C-844C-B947-C76B00702BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="1540" windowWidth="24200" windowHeight="12880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="1100" windowWidth="24200" windowHeight="12880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NC-Init" sheetId="1" r:id="rId1"/>
     <sheet name="NC-SUM" sheetId="4" r:id="rId2"/>
     <sheet name="JX-Icbc" sheetId="10" r:id="rId3"/>
     <sheet name="JX-banks" sheetId="12" r:id="rId4"/>
-    <sheet name="DW-Tot" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
-    <sheet name="wd-op-log" sheetId="6" r:id="rId7"/>
+    <sheet name="wd-op-log" sheetId="6" r:id="rId5"/>
+    <sheet name="DW-Tot" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
     <sheet name="draft-NCBank-Alloc" sheetId="11" r:id="rId8"/>
     <sheet name="draft" sheetId="2" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId10"/>
+    <sheet name="exchange" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -500,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="225">
   <si>
     <t>Account#</t>
   </si>
@@ -1132,9 +1132,6 @@
     <t>dw-icbc</t>
   </si>
   <si>
-    <t>dw-mrchan</t>
-  </si>
-  <si>
     <t>quote1</t>
   </si>
   <si>
@@ -1172,13 +1169,20 @@
   </si>
   <si>
     <t>month10</t>
+  </si>
+  <si>
+    <t>dw-merchan</t>
+  </si>
+  <si>
+    <t>22-08-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -1281,7 +1285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,12 +1402,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1510,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1583,8 +1581,6 @@
     <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1720,18 +1716,24 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="21" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="22" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="9" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2768,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D30867E-529D-4945-9ADE-3E48602D6754}">
   <dimension ref="A2:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2783,38 +2785,38 @@
   <sheetData>
     <row r="2" spans="1:25">
       <c r="B2" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>214</v>
-      </c>
       <c r="E2" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:25" s="58" customFormat="1">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:25" s="56" customFormat="1">
+      <c r="A3" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="126">
         <f>SUM(B4:B7)</f>
         <v>2646236.4900000002</v>
       </c>
-      <c r="C3" s="130">
+      <c r="C3" s="127">
         <f>SUM(C8:C90)</f>
         <v>106782.73999999999</v>
       </c>
-      <c r="E3" s="130">
+      <c r="E3" s="127">
         <f>SUM(E9:E170)</f>
-        <v>723096.84</v>
-      </c>
-      <c r="F3" s="136">
+        <v>724345.84</v>
+      </c>
+      <c r="F3" s="133">
         <f>B3+E3</f>
-        <v>3369333.33</v>
+        <v>3370582.33</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2848,311 +2850,311 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="23" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B7" s="15">
         <v>59510.66</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="126" customFormat="1">
-      <c r="A8" s="127" t="s">
+    <row r="8" spans="1:25" s="123" customFormat="1">
+      <c r="A8" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="128">
         <v>6782.74</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-    </row>
-    <row r="9" spans="1:25" s="126" customFormat="1">
-      <c r="A9" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="131">
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+    </row>
+    <row r="9" spans="1:25" s="123" customFormat="1">
+      <c r="A9" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="128">
         <v>50000</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="123">
         <f>E9/C9</f>
         <v>6.8750200000000001</v>
       </c>
-      <c r="E9" s="128">
+      <c r="E9" s="125">
         <v>343751</v>
       </c>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-    </row>
-    <row r="10" spans="1:25" s="126" customFormat="1">
-      <c r="A10" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="131">
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="129"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="129"/>
+      <c r="V9" s="129"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="129"/>
+      <c r="Y9" s="129"/>
+    </row>
+    <row r="10" spans="1:25" s="123" customFormat="1">
+      <c r="A10" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="128">
         <v>50000</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="123">
         <f>E10/C10</f>
-        <v>6.8750200000000001</v>
-      </c>
-      <c r="E10" s="128">
-        <v>343751</v>
-      </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-    </row>
-    <row r="11" spans="1:25" s="126" customFormat="1">
-      <c r="E11" s="128">
-        <f t="shared" ref="E10:E17" si="0">C11*D11</f>
+        <v>6.9</v>
+      </c>
+      <c r="E10" s="125">
+        <v>345000</v>
+      </c>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+    </row>
+    <row r="11" spans="1:25" s="123" customFormat="1">
+      <c r="E11" s="125">
+        <f t="shared" ref="E11:E17" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-    </row>
-    <row r="12" spans="1:25" s="126" customFormat="1">
-      <c r="E12" s="128">
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+    </row>
+    <row r="12" spans="1:25" s="123" customFormat="1">
+      <c r="E12" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-    </row>
-    <row r="13" spans="1:25" s="126" customFormat="1">
-      <c r="E13" s="128">
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+    </row>
+    <row r="13" spans="1:25" s="123" customFormat="1">
+      <c r="E13" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-    </row>
-    <row r="14" spans="1:25" s="126" customFormat="1">
-      <c r="E14" s="128">
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+    </row>
+    <row r="14" spans="1:25" s="123" customFormat="1">
+      <c r="E14" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-    </row>
-    <row r="15" spans="1:25" s="126" customFormat="1">
-      <c r="E15" s="128">
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+    </row>
+    <row r="15" spans="1:25" s="123" customFormat="1">
+      <c r="E15" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-    </row>
-    <row r="16" spans="1:25" s="126" customFormat="1">
-      <c r="E16" s="128">
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="129"/>
+      <c r="P15" s="129"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="129"/>
+      <c r="S15" s="129"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
+      <c r="W15" s="129"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="129"/>
+    </row>
+    <row r="16" spans="1:25" s="123" customFormat="1">
+      <c r="E16" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="132"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-    </row>
-    <row r="17" spans="1:25" s="126" customFormat="1">
-      <c r="E17" s="128">
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
+      <c r="U16" s="129"/>
+      <c r="V16" s="129"/>
+      <c r="W16" s="129"/>
+      <c r="X16" s="129"/>
+      <c r="Y16" s="129"/>
+    </row>
+    <row r="17" spans="1:25" s="123" customFormat="1">
+      <c r="E17" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="129"/>
+      <c r="V17" s="129"/>
+      <c r="W17" s="129"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132">
+        <v>1734.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135">
-        <v>1734.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="133" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135">
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132">
         <v>17000</v>
       </c>
       <c r="I19">
@@ -3160,13 +3162,13 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="133" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="135">
+      <c r="A20" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132">
         <v>13000</v>
       </c>
       <c r="I20">
@@ -3174,13 +3176,13 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="133" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135">
+      <c r="A21" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132">
         <v>3860.69</v>
       </c>
       <c r="I21">
@@ -3188,37 +3190,37 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="133" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
+      <c r="A22" s="130" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
       <c r="I22">
         <v>68648</v>
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="133" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
+      <c r="A23" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
       <c r="I23">
         <v>68711</v>
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="133" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
+      <c r="A24" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
       <c r="I24">
         <v>61991</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="34"/>
-      <c r="E2" s="109">
+      <c r="E2" s="107">
         <f t="shared" ref="E2:F2" si="0">SUM(E3:E141)</f>
         <v>1963377.84</v>
       </c>
@@ -3298,16 +3300,16 @@
         <f t="shared" si="0"/>
         <v>6782.74</v>
       </c>
-      <c r="G2" s="110">
+      <c r="G2" s="108">
         <f>SUM(G3:G27)</f>
         <v>203146.96000000002</v>
       </c>
-      <c r="H2" s="123"/>
+      <c r="H2" s="121"/>
       <c r="I2" s="39">
         <f>SUM(I3:I28)</f>
         <v>-7162.11</v>
       </c>
-      <c r="J2" s="123">
+      <c r="J2" s="121">
         <f>SUM(J3:J100)</f>
         <v>2166524.7999999998</v>
       </c>
@@ -3315,7 +3317,7 @@
         <f>E2+G2</f>
         <v>2166524.8000000003</v>
       </c>
-      <c r="L2" s="124">
+      <c r="L2" s="122">
         <v>2166525.7999999998</v>
       </c>
       <c r="M2" s="38"/>
@@ -3358,7 +3360,7 @@
       <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="111" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="42" t="s">
@@ -3410,7 +3412,7 @@
       <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="42" t="s">
@@ -3435,7 +3437,7 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3460,7 +3462,7 @@
       <c r="B8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="42" t="s">
@@ -3479,7 +3481,7 @@
         <f t="shared" si="1"/>
         <v>398762.83999999997</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="110">
         <v>44733</v>
       </c>
     </row>
@@ -3490,7 +3492,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3520,7 +3522,7 @@
       <c r="B10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="42" t="s">
@@ -3539,7 +3541,7 @@
         <f t="shared" si="1"/>
         <v>384158.33999999997</v>
       </c>
-      <c r="L10" s="112">
+      <c r="L10" s="110">
         <v>44734</v>
       </c>
     </row>
@@ -3550,7 +3552,7 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3580,7 +3582,7 @@
       <c r="B12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -3604,7 +3606,7 @@
       <c r="K12" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="112">
+      <c r="L12" s="110">
         <v>44727</v>
       </c>
     </row>
@@ -3615,7 +3617,7 @@
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3650,7 +3652,7 @@
       <c r="B14" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="42" t="s">
@@ -3671,7 +3673,7 @@
         <f t="shared" si="1"/>
         <v>211347.11</v>
       </c>
-      <c r="L14" s="111">
+      <c r="L14" s="109">
         <v>44729</v>
       </c>
     </row>
@@ -4011,7 +4013,7 @@
   <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
@@ -4019,23 +4021,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="58"/>
-    <col min="2" max="2" width="17.1640625" style="65" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="56"/>
+    <col min="2" max="2" width="17.1640625" style="63" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="57" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="73"/>
+    <col min="5" max="5" width="6.5" style="55" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="71"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="57" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="65"/>
+    <col min="9" max="9" width="2" style="55" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="63"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="49" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" thickBot="1">
-      <c r="M1" s="101">
+      <c r="M1" s="99">
         <f>SUM(M2,M4)</f>
         <v>3255963.66</v>
       </c>
@@ -4044,429 +4046,429 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="14" thickBot="1">
-      <c r="M2" s="99">
+      <c r="M2" s="97">
         <v>2166524.14</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="61" customFormat="1" ht="14" thickBot="1">
-      <c r="A3" s="103" t="s">
+    <row r="3" spans="1:14" s="59" customFormat="1" ht="14" thickBot="1">
+      <c r="A3" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="115">
+      <c r="B3" s="64"/>
+      <c r="C3" s="113">
         <f>SUM(C42:C59)+SUM(C22:C25)</f>
         <v>-19325.16</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="64"/>
-      <c r="M3" s="97">
+      <c r="D3" s="61"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="62"/>
+      <c r="M3" s="95">
         <f>SUM(ABS(C4)+D4+H4+L4)</f>
         <v>1889439.52</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="95" customFormat="1" ht="14" thickBot="1">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:14" s="93" customFormat="1" ht="14" thickBot="1">
+      <c r="A4" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="88">
+      <c r="B4" s="64"/>
+      <c r="C4" s="86">
         <f>SUM(C30:C31)+SUM(C34:C36)+SUM(C20:C21)</f>
         <v>-1300000</v>
       </c>
-      <c r="D4" s="89">
+      <c r="D4" s="87">
         <f>D30</f>
         <v>92048.05</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="19">
         <v>28338.27</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="94">
+      <c r="I4" s="91"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="92">
         <v>426800</v>
       </c>
-      <c r="L4" s="96">
+      <c r="L4" s="94">
         <v>469053.2</v>
       </c>
-      <c r="M4" s="100">
+      <c r="M4" s="98">
         <f>SUM(ABS(C37)+D4+H4+L4)</f>
         <v>1089439.52</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="100" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="80" customFormat="1" ht="29" customHeight="1">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:14" s="78" customFormat="1" ht="29" customHeight="1">
+      <c r="A5" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="80" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="80" t="s">
+      <c r="I5" s="83"/>
+      <c r="J5" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="86" t="s">
+      <c r="K5" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="85">
         <v>44857</v>
       </c>
-      <c r="M5" s="98"/>
-    </row>
-    <row r="6" spans="1:14" s="70" customFormat="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="74"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="67"/>
-      <c r="M6" s="81"/>
-    </row>
-    <row r="7" spans="1:14" s="70" customFormat="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="74"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="67"/>
-      <c r="M7" s="81"/>
-    </row>
-    <row r="8" spans="1:14" s="70" customFormat="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="74"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="67"/>
-      <c r="M8" s="81"/>
-    </row>
-    <row r="9" spans="1:14" s="70" customFormat="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="74"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="67"/>
-      <c r="M9" s="81"/>
-    </row>
-    <row r="10" spans="1:14" s="70" customFormat="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="74"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="67"/>
-      <c r="M10" s="81"/>
-    </row>
-    <row r="11" spans="1:14" s="70" customFormat="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="74"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="67"/>
-      <c r="M11" s="81"/>
-    </row>
-    <row r="12" spans="1:14" s="70" customFormat="1">
-      <c r="A12" s="59" t="s">
+      <c r="M5" s="96"/>
+    </row>
+    <row r="6" spans="1:14" s="68" customFormat="1">
+      <c r="A6" s="57"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="72"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="65"/>
+      <c r="M6" s="79"/>
+    </row>
+    <row r="7" spans="1:14" s="68" customFormat="1">
+      <c r="A7" s="57"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="72"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="65"/>
+      <c r="M7" s="79"/>
+    </row>
+    <row r="8" spans="1:14" s="68" customFormat="1">
+      <c r="A8" s="57"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="72"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="65"/>
+      <c r="M8" s="79"/>
+    </row>
+    <row r="9" spans="1:14" s="68" customFormat="1">
+      <c r="A9" s="57"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="72"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="65"/>
+      <c r="M9" s="79"/>
+    </row>
+    <row r="10" spans="1:14" s="68" customFormat="1">
+      <c r="A10" s="57"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="72"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="65"/>
+      <c r="M10" s="79"/>
+    </row>
+    <row r="11" spans="1:14" s="68" customFormat="1">
+      <c r="A11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="72"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="65"/>
+      <c r="M11" s="79"/>
+    </row>
+    <row r="12" spans="1:14" s="68" customFormat="1">
+      <c r="A12" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="115">
         <v>-800</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="74"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="67"/>
-      <c r="M12" s="81"/>
-    </row>
-    <row r="13" spans="1:14" s="70" customFormat="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="117">
+      <c r="D12" s="60"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="72"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="65"/>
+      <c r="M12" s="79"/>
+    </row>
+    <row r="13" spans="1:14" s="68" customFormat="1">
+      <c r="A13" s="57"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="115">
         <v>-1250</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="74"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="67"/>
-      <c r="M13" s="81"/>
-    </row>
-    <row r="14" spans="1:14" s="70" customFormat="1">
-      <c r="A14" s="59" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="72"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="65"/>
+      <c r="M13" s="79"/>
+    </row>
+    <row r="14" spans="1:14" s="68" customFormat="1">
+      <c r="A14" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="106">
         <v>200000</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="115">
         <v>240650.05</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="74"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="67"/>
-      <c r="M14" s="81"/>
-    </row>
-    <row r="15" spans="1:14" s="70" customFormat="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="62">
+      <c r="E14" s="76"/>
+      <c r="F14" s="72"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="65"/>
+      <c r="M14" s="79"/>
+    </row>
+    <row r="15" spans="1:14" s="68" customFormat="1">
+      <c r="A15" s="57"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="60">
         <v>-200000</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="115">
         <v>40650.050000000003</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="74"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="67"/>
-      <c r="M15" s="81"/>
-    </row>
-    <row r="16" spans="1:14" s="70" customFormat="1">
-      <c r="A16" s="59" t="s">
+      <c r="E15" s="76"/>
+      <c r="F15" s="72"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="65"/>
+      <c r="M15" s="79"/>
+    </row>
+    <row r="16" spans="1:14" s="68" customFormat="1">
+      <c r="A16" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="108">
+      <c r="B16" s="65"/>
+      <c r="C16" s="106">
         <v>400000</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="115">
         <v>490650.05</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="74"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="67"/>
-      <c r="M16" s="81"/>
-    </row>
-    <row r="17" spans="1:13" s="70" customFormat="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="67" t="s">
+      <c r="E16" s="76"/>
+      <c r="F16" s="72"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="65"/>
+      <c r="M16" s="79"/>
+    </row>
+    <row r="17" spans="1:13" s="68" customFormat="1">
+      <c r="A17" s="57"/>
+      <c r="B17" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="116">
         <v>-400000</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="115">
         <v>90650.05</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="74"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="67"/>
-      <c r="M17" s="81"/>
-    </row>
-    <row r="18" spans="1:13" s="70" customFormat="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="67" t="s">
+      <c r="E17" s="76"/>
+      <c r="F17" s="72"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="65"/>
+      <c r="M17" s="79"/>
+    </row>
+    <row r="18" spans="1:13" s="68" customFormat="1">
+      <c r="A18" s="57"/>
+      <c r="B18" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="119">
+      <c r="C18" s="117">
         <v>50000</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="115">
         <v>40650.050000000003</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="74"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="67"/>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" s="70" customFormat="1">
-      <c r="A19" s="103" t="s">
+      <c r="E18" s="76"/>
+      <c r="F18" s="72"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="65"/>
+      <c r="M18" s="79"/>
+    </row>
+    <row r="19" spans="1:13" s="68" customFormat="1">
+      <c r="A19" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="108">
+      <c r="C19" s="106">
         <v>400000</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="74"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="67"/>
-      <c r="M19" s="81"/>
-    </row>
-    <row r="20" spans="1:13" s="70" customFormat="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="104" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="72"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="65"/>
+      <c r="M19" s="79"/>
+    </row>
+    <row r="20" spans="1:13" s="68" customFormat="1">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="104">
         <v>-200000</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="74"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="67"/>
-      <c r="M20" s="81"/>
-    </row>
-    <row r="21" spans="1:13" s="70" customFormat="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104" t="s">
+      <c r="E20" s="76"/>
+      <c r="F20" s="72"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="65"/>
+      <c r="M20" s="79"/>
+    </row>
+    <row r="21" spans="1:13" s="68" customFormat="1">
+      <c r="A21" s="101"/>
+      <c r="B21" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C21" s="104">
         <v>-200000</v>
       </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="74"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="67"/>
-      <c r="M21" s="81"/>
-    </row>
-    <row r="22" spans="1:13" s="70" customFormat="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="104" t="s">
+      <c r="E21" s="76"/>
+      <c r="F21" s="72"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="65"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13" s="68" customFormat="1">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="116">
+      <c r="C22" s="114">
         <v>-18</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="74"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="67"/>
-      <c r="M22" s="81"/>
-    </row>
-    <row r="23" spans="1:13" s="70" customFormat="1">
-      <c r="A23" s="103"/>
-      <c r="B23" s="104" t="s">
+      <c r="E22" s="76"/>
+      <c r="F22" s="72"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="65"/>
+      <c r="M22" s="79"/>
+    </row>
+    <row r="23" spans="1:13" s="68" customFormat="1">
+      <c r="A23" s="101"/>
+      <c r="B23" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="114">
         <v>-1380</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="74"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="67"/>
-      <c r="M23" s="81"/>
-    </row>
-    <row r="24" spans="1:13" s="70" customFormat="1">
-      <c r="A24" s="103"/>
-      <c r="B24" s="104" t="s">
+      <c r="E23" s="76"/>
+      <c r="F23" s="72"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="65"/>
+      <c r="M23" s="79"/>
+    </row>
+    <row r="24" spans="1:13" s="68" customFormat="1">
+      <c r="A24" s="101"/>
+      <c r="B24" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="C24" s="116">
+      <c r="C24" s="114">
         <v>1500</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="74"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="67"/>
-      <c r="M24" s="81"/>
-    </row>
-    <row r="25" spans="1:13" s="70" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="104" t="s">
+      <c r="E24" s="76"/>
+      <c r="F24" s="72"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="65"/>
+      <c r="M24" s="79"/>
+    </row>
+    <row r="25" spans="1:13" s="68" customFormat="1">
+      <c r="A25" s="101"/>
+      <c r="B25" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="116">
+      <c r="C25" s="114">
         <v>-1500</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="74"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="67"/>
-      <c r="M25" s="81"/>
-    </row>
-    <row r="26" spans="1:13" s="70" customFormat="1">
-      <c r="A26" s="103" t="s">
+      <c r="E25" s="76"/>
+      <c r="F25" s="72"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="65"/>
+      <c r="M25" s="79"/>
+    </row>
+    <row r="26" spans="1:13" s="68" customFormat="1">
+      <c r="A26" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="106"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="74" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="104"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="105">
+      <c r="G26" s="103">
         <v>6309</v>
       </c>
-      <c r="H26" s="105">
+      <c r="H26" s="103">
         <v>36159.269999999997</v>
       </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="67"/>
-      <c r="M26" s="81"/>
-    </row>
-    <row r="27" spans="1:13" s="70" customFormat="1">
-      <c r="A27" s="103"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="106"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="105">
+      <c r="I26" s="76"/>
+      <c r="J26" s="65"/>
+      <c r="M26" s="79"/>
+    </row>
+    <row r="27" spans="1:13" s="68" customFormat="1">
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="104"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="103">
         <v>1512</v>
       </c>
-      <c r="H27" s="105">
+      <c r="H27" s="103">
         <v>29850.27</v>
       </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="67"/>
-      <c r="M27" s="81"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="65"/>
+      <c r="M27" s="79"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="77" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="F28" s="75" t="s">
+      <c r="F28" s="73" t="s">
         <v>100</v>
       </c>
       <c r="G28">
@@ -4480,61 +4482,61 @@
       <c r="C29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="83"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="107">
+      <c r="C30" s="105">
         <v>-200000</v>
       </c>
       <c r="D30" s="15">
         <v>92048.05</v>
       </c>
-      <c r="E30" s="83"/>
+      <c r="E30" s="81"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="83"/>
+      <c r="I30" s="81"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="107">
+      <c r="C31" s="105">
         <v>-200000</v>
       </c>
       <c r="D31" s="15">
         <v>292048.05</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="81"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="83"/>
+      <c r="I31" s="81"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="77">
+      <c r="C32" s="75">
         <v>400000</v>
       </c>
-      <c r="D32" s="60">
+      <c r="D32" s="58">
         <v>492048.05</v>
       </c>
-      <c r="E32" s="84"/>
+      <c r="E32" s="82"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="83"/>
+      <c r="I32" s="81"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="66" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="15">
@@ -4543,75 +4545,75 @@
       <c r="D33" s="15">
         <v>92048.05</v>
       </c>
-      <c r="E33" s="83"/>
+      <c r="E33" s="81"/>
       <c r="G33" s="15">
         <v>331.94</v>
       </c>
       <c r="H33" s="15">
         <v>27518.79</v>
       </c>
-      <c r="I33" s="83"/>
+      <c r="I33" s="81"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="70">
         <v>-100000</v>
       </c>
       <c r="D34" s="15">
         <v>91967.75</v>
       </c>
-      <c r="E34" s="83"/>
+      <c r="E34" s="81"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="83"/>
+      <c r="I34" s="81"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="70">
         <v>-200000</v>
       </c>
       <c r="D35" s="15">
         <v>191967.75</v>
       </c>
-      <c r="E35" s="83"/>
+      <c r="E35" s="81"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="83"/>
+      <c r="I35" s="81"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="70">
         <v>-200000</v>
       </c>
       <c r="D36" s="15">
         <v>391967.75</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="81"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="83"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="74">
         <v>500000</v>
       </c>
       <c r="D37" s="15">
         <v>591967.75</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="75" t="s">
+      <c r="E37" s="81"/>
+      <c r="F37" s="73" t="s">
         <v>68</v>
       </c>
       <c r="G37" s="15">
@@ -4620,13 +4622,13 @@
       <c r="H37" s="15">
         <v>27186.85</v>
       </c>
-      <c r="I37" s="83"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="66" t="s">
         <v>115</v>
       </c>
       <c r="C38" s="15">
@@ -4635,20 +4637,20 @@
       <c r="D38" s="15">
         <v>91967.75</v>
       </c>
-      <c r="E38" s="83"/>
+      <c r="E38" s="81"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="83"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="75" t="s">
+      <c r="E39" s="81"/>
+      <c r="F39" s="73" t="s">
         <v>134</v>
       </c>
       <c r="G39" s="15">
@@ -4657,17 +4659,17 @@
       <c r="H39" s="15">
         <v>527186.85</v>
       </c>
-      <c r="I39" s="83"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="75" t="s">
+      <c r="E40" s="81"/>
+      <c r="F40" s="73" t="s">
         <v>100</v>
       </c>
       <c r="G40" s="15">
@@ -4676,21 +4678,21 @@
       <c r="H40" s="15">
         <v>521129.85</v>
       </c>
-      <c r="I40" s="83"/>
+      <c r="I40" s="81"/>
     </row>
     <row r="41" spans="1:9">
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="83"/>
+      <c r="E41" s="81"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="83"/>
+      <c r="I41" s="81"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="66" t="s">
         <v>136</v>
       </c>
       <c r="C42" s="15">
@@ -4699,16 +4701,16 @@
       <c r="D42" s="15">
         <v>91966.31</v>
       </c>
-      <c r="E42" s="83"/>
+      <c r="E42" s="81"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
-      <c r="I42" s="83"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="66" t="s">
         <v>136</v>
       </c>
       <c r="C43" s="15">
@@ -4717,16 +4719,16 @@
       <c r="D43" s="15">
         <v>100066.31</v>
       </c>
-      <c r="E43" s="83"/>
+      <c r="E43" s="81"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
-      <c r="I43" s="83"/>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="66" t="s">
         <v>137</v>
       </c>
       <c r="C44" s="15">
@@ -4735,10 +4737,10 @@
       <c r="D44" s="15">
         <v>101066.31</v>
       </c>
-      <c r="E44" s="83"/>
+      <c r="E44" s="81"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
-      <c r="I44" s="83"/>
+      <c r="I44" s="81"/>
     </row>
     <row r="45" spans="1:9">
       <c r="C45" s="15">
@@ -4747,34 +4749,34 @@
       <c r="D45" s="15">
         <v>109266.31</v>
       </c>
-      <c r="E45" s="83"/>
+      <c r="E45" s="81"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="83"/>
+      <c r="I45" s="81"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="77" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="75" t="s">
+      <c r="E46" s="81"/>
+      <c r="F46" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="71">
+      <c r="G46" s="69">
         <v>10600</v>
       </c>
       <c r="H46" s="15">
         <v>520310.37</v>
       </c>
-      <c r="I46" s="83"/>
+      <c r="I46" s="81"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="15">
@@ -4783,20 +4785,20 @@
       <c r="D47" s="15">
         <v>109267.31</v>
       </c>
-      <c r="E47" s="83"/>
+      <c r="E47" s="81"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="83"/>
+      <c r="I47" s="81"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="68"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="75" t="s">
+      <c r="E48" s="81"/>
+      <c r="F48" s="73" t="s">
         <v>134</v>
       </c>
       <c r="G48" s="15">
@@ -4805,13 +4807,13 @@
       <c r="H48" s="15">
         <v>509710.37</v>
       </c>
-      <c r="I48" s="83"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="15">
@@ -4820,13 +4822,13 @@
       <c r="D49" s="15">
         <v>109420.71</v>
       </c>
-      <c r="E49" s="83"/>
+      <c r="E49" s="81"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
-      <c r="I49" s="83"/>
+      <c r="I49" s="81"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="15">
@@ -4835,16 +4837,16 @@
       <c r="D50" s="15">
         <v>109435.71</v>
       </c>
-      <c r="E50" s="83"/>
+      <c r="E50" s="81"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="83"/>
+      <c r="I50" s="81"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="66" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="15">
@@ -4853,16 +4855,16 @@
       <c r="D51" s="15">
         <v>109546.91</v>
       </c>
-      <c r="E51" s="83"/>
+      <c r="E51" s="81"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="83"/>
+      <c r="I51" s="81"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C52" s="15">
@@ -4871,16 +4873,16 @@
       <c r="D52" s="15">
         <v>109534.57</v>
       </c>
-      <c r="E52" s="83"/>
+      <c r="E52" s="81"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="I52" s="83"/>
+      <c r="I52" s="81"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C53" s="15">
@@ -4889,16 +4891,16 @@
       <c r="D53" s="15">
         <v>109665.67</v>
       </c>
-      <c r="E53" s="83"/>
+      <c r="E53" s="81"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="I53" s="83"/>
+      <c r="I53" s="81"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="15">
@@ -4907,35 +4909,35 @@
       <c r="D54" s="15">
         <v>109717.27</v>
       </c>
-      <c r="E54" s="83"/>
+      <c r="E54" s="81"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="83"/>
+      <c r="I54" s="81"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="68"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="75" t="s">
+      <c r="E55" s="81"/>
+      <c r="F55" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="69">
         <v>100296</v>
       </c>
       <c r="H55" s="15">
         <v>503653.37</v>
       </c>
-      <c r="I55" s="83"/>
+      <c r="I55" s="81"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="15">
@@ -4944,16 +4946,16 @@
       <c r="D56" s="15">
         <v>109732.47</v>
       </c>
-      <c r="E56" s="83"/>
+      <c r="E56" s="81"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
-      <c r="I56" s="83"/>
+      <c r="I56" s="81"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="15">
@@ -4962,16 +4964,16 @@
       <c r="D57" s="15">
         <v>109771.97</v>
       </c>
-      <c r="E57" s="83"/>
+      <c r="E57" s="81"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
-      <c r="I57" s="83"/>
+      <c r="I57" s="81"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="66" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="15">
@@ -4980,16 +4982,16 @@
       <c r="D58" s="15">
         <v>109772.97</v>
       </c>
-      <c r="E58" s="83"/>
+      <c r="E58" s="81"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="83"/>
+      <c r="I58" s="81"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="79" t="s">
+      <c r="A59" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C59" s="15">
@@ -4998,97 +5000,97 @@
       <c r="D59" s="15">
         <v>109867.97</v>
       </c>
-      <c r="E59" s="83"/>
+      <c r="E59" s="81"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
-      <c r="I59" s="83"/>
+      <c r="I59" s="81"/>
     </row>
     <row r="60" spans="1:9">
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
-      <c r="E60" s="83"/>
+      <c r="E60" s="81"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
-      <c r="I60" s="83"/>
+      <c r="I60" s="81"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="69">
+      <c r="C61" s="67">
         <v>109923.47</v>
       </c>
       <c r="D61" s="15">
         <v>109923.47</v>
       </c>
-      <c r="E61" s="83"/>
+      <c r="E61" s="81"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
-      <c r="I61" s="83"/>
+      <c r="I61" s="81"/>
     </row>
     <row r="62" spans="1:9">
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="83"/>
+      <c r="E62" s="81"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="83"/>
+      <c r="I62" s="81"/>
     </row>
     <row r="63" spans="1:9">
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="83"/>
+      <c r="E63" s="81"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
-      <c r="I63" s="83"/>
+      <c r="I63" s="81"/>
     </row>
     <row r="64" spans="1:9">
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="83"/>
+      <c r="E64" s="81"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
-      <c r="I64" s="83"/>
+      <c r="I64" s="81"/>
     </row>
     <row r="65" spans="3:9">
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="83"/>
+      <c r="E65" s="81"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
-      <c r="I65" s="83"/>
+      <c r="I65" s="81"/>
     </row>
     <row r="66" spans="3:9">
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="83"/>
+      <c r="E66" s="81"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
-      <c r="I66" s="83"/>
+      <c r="I66" s="81"/>
     </row>
     <row r="67" spans="3:9">
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="83"/>
+      <c r="E67" s="81"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
-      <c r="I67" s="83"/>
+      <c r="I67" s="81"/>
     </row>
     <row r="68" spans="3:9">
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="83"/>
+      <c r="E68" s="81"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
-      <c r="I68" s="83"/>
+      <c r="I68" s="81"/>
     </row>
     <row r="69" spans="3:9">
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
-      <c r="E69" s="83"/>
+      <c r="E69" s="81"/>
     </row>
     <row r="70" spans="3:9">
       <c r="C70" s="15"/>
@@ -5390,7 +5392,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5495,28 +5497,28 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="2:6" s="135" customFormat="1">
+      <c r="B9" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="136">
         <f>SUM(E3:E6)</f>
         <v>1108651.4800000002</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="2:6" s="135" customFormat="1">
+      <c r="B11" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="137">
         <v>2166525.7999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="2:6" s="135" customFormat="1">
+      <c r="B13" s="134" t="s">
         <v>204</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="136">
         <f>E9+E11</f>
         <v>3275177.2800000003</v>
       </c>
@@ -5527,6 +5529,442 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="138" customFormat="1">
+      <c r="A1" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="139">
+        <f>SUM(D2:D362)</f>
+        <v>46738.74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15">
+        <v>858.24</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15">
+        <v>98</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15">
+        <v>100</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="15">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="15">
+        <v>437</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="15">
+        <v>296</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="15">
+        <v>380</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="15">
+        <v>872</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1536</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="15">
+        <v>380</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="15">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="15">
+        <v>190</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="15">
+        <v>100</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="15">
+        <v>400000</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="15">
+        <v>50000</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15">
+        <v>968</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15">
+        <v>344</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15">
+        <v>772</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15">
+        <v>2746</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15">
+        <v>223.5</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15">
+        <v>35000</v>
+      </c>
+      <c r="E47" s="140">
+        <v>49999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABBAAB3-7531-6B47-9507-BAF1F25871C4}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -5813,7 +6251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF941A89-B655-B543-904F-EB5D56397792}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5821,434 +6259,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED1393D-93E0-6547-BE37-37C21B49335F}">
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="54" customFormat="1">
-      <c r="A1" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="55">
-        <f>SUM(D2:D362)</f>
-        <v>11738.74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15">
-        <v>858.24</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15">
-        <v>98</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15">
-        <v>100</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="15">
-        <v>1200</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="15">
-        <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="15">
-        <v>437</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="15">
-        <v>296</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="15">
-        <v>380</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="15">
-        <v>872</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="15">
-        <v>1536</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="15">
-        <v>380</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="15">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="15">
-        <v>190</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="15">
-        <v>100</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="15">
-        <v>400000</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="15">
-        <v>50000</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15">
-        <v>968</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="23"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15">
-        <v>344</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15">
-        <v>772</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15">
-        <v>2746</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15">
-        <v>223.5</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6272,35 +6282,35 @@
     <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" s="114" customFormat="1" ht="39" customHeight="1">
-      <c r="B4" s="114" t="s">
+    <row r="4" spans="1:11" s="112" customFormat="1" ht="39" customHeight="1">
+      <c r="B4" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="114" t="s">
+      <c r="K4" s="112" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6349,33 +6359,33 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="118" t="s">
         <v>168</v>
       </c>
       <c r="B10" s="44">
         <f>B18</f>
         <v>59381.13</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C10" s="119">
         <f>C18</f>
         <v>60052.19</v>
       </c>
       <c r="D10" s="44">
         <v>583903.63</v>
       </c>
-      <c r="E10" s="121">
+      <c r="E10" s="119">
         <f>SUM(E11:E14)</f>
         <v>1400000</v>
       </c>
-      <c r="I10" s="121">
+      <c r="I10" s="119">
         <f>I18</f>
         <v>60000</v>
       </c>
-      <c r="J10" s="121">
+      <c r="J10" s="119">
         <f>SUM(B10:I10)</f>
         <v>2163336.9500000002</v>
       </c>
-      <c r="K10" s="120" t="s">
+      <c r="K10" s="118" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6419,7 +6429,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="118" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="44">
@@ -6443,11 +6453,11 @@
       <c r="I18" s="44">
         <v>60000</v>
       </c>
-      <c r="J18" s="121">
+      <c r="J18" s="119">
         <f>SUM(B18:I18)</f>
         <v>2164836.9500000002</v>
       </c>
-      <c r="K18" s="120" t="s">
+      <c r="K18" s="118" t="s">
         <v>143</v>
       </c>
     </row>
